--- a/backend/uploaded_files/14e35aca-9509-48ae-a48b-593e57e4552d_Nura Fleet Data.xlsx
+++ b/backend/uploaded_files/14e35aca-9509-48ae-a48b-593e57e4552d_Nura Fleet Data.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hybrid Arks\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F947A9-29E5-4527-99B5-1808B7615C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="1890"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>TN22ED4894</t>
   </si>
@@ -94,12 +113,72 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>TN02CE6854</t>
+  </si>
+  <si>
+    <t>TN02CE6898</t>
+  </si>
+  <si>
+    <t>TN02CE6853</t>
+  </si>
+  <si>
+    <t>TN02CE6806</t>
+  </si>
+  <si>
+    <t>TN02CE6827</t>
+  </si>
+  <si>
+    <t>TN02CE6894</t>
+  </si>
+  <si>
+    <t>TN02CE6829</t>
+  </si>
+  <si>
+    <t>TN02CE6879</t>
+  </si>
+  <si>
+    <t>TN02CE6813</t>
+  </si>
+  <si>
+    <t>TN02CE6877</t>
+  </si>
+  <si>
+    <t>P60L2511500003846</t>
+  </si>
+  <si>
+    <t>P60L2511500003905</t>
+  </si>
+  <si>
+    <t>P60L2511500003957</t>
+  </si>
+  <si>
+    <t>P60L2511500003991</t>
+  </si>
+  <si>
+    <t>P60L2511500003993</t>
+  </si>
+  <si>
+    <t>P60L2511500003906</t>
+  </si>
+  <si>
+    <t>P60L2511500004008</t>
+  </si>
+  <si>
+    <t>P60L2511500004010</t>
+  </si>
+  <si>
+    <t>P60L2511500004085</t>
+  </si>
+  <si>
+    <t>P60M2511500004336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,14 +220,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +268,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -258,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,16 +513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -451,7 +533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -462,7 +544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -473,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -484,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -495,7 +577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -506,7 +588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -517,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -528,7 +610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -539,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -550,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -558,6 +640,116 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -567,26 +759,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="23.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
